--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H2">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I2">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J2">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N2">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q2">
-        <v>102.6095454281955</v>
+        <v>113.1841927465333</v>
       </c>
       <c r="R2">
-        <v>102.6095454281955</v>
+        <v>1018.6577347188</v>
       </c>
       <c r="S2">
-        <v>0.2546079147097609</v>
+        <v>0.2295399281625689</v>
       </c>
       <c r="T2">
-        <v>0.2546079147097609</v>
+        <v>0.2295399281625689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H3">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I3">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J3">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N3">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q3">
-        <v>182.5631764245233</v>
+        <v>234.280041116352</v>
       </c>
       <c r="R3">
-        <v>182.5631764245233</v>
+        <v>2108.520370047168</v>
       </c>
       <c r="S3">
-        <v>0.4529990797470731</v>
+        <v>0.4751248606614126</v>
       </c>
       <c r="T3">
-        <v>0.4529990797470731</v>
+        <v>0.4751248606614127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H4">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I4">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J4">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N4">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q4">
-        <v>17.83749497175934</v>
+        <v>22.052591779636</v>
       </c>
       <c r="R4">
-        <v>17.83749497175934</v>
+        <v>198.473326016724</v>
       </c>
       <c r="S4">
-        <v>0.04426067165051039</v>
+        <v>0.04472312087105595</v>
       </c>
       <c r="T4">
-        <v>0.04426067165051039</v>
+        <v>0.04472312087105595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H5">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I5">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J5">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N5">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O5">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P5">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q5">
-        <v>28.59205653364376</v>
+        <v>30.88325535440934</v>
       </c>
       <c r="R5">
-        <v>28.59205653364376</v>
+        <v>277.949298189684</v>
       </c>
       <c r="S5">
-        <v>0.07094626392618503</v>
+        <v>0.06263189270035691</v>
       </c>
       <c r="T5">
-        <v>0.07094626392618503</v>
+        <v>0.06263189270035691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H6">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I6">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J6">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N6">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q6">
-        <v>38.48202365433191</v>
+        <v>50.256998694892</v>
       </c>
       <c r="R6">
-        <v>38.48202365433191</v>
+        <v>452.312988254028</v>
       </c>
       <c r="S6">
-        <v>0.09548651400368496</v>
+        <v>0.1019222524820734</v>
       </c>
       <c r="T6">
-        <v>0.09548651400368496</v>
+        <v>0.1019222524820734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H7">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I7">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J7">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N7">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q7">
-        <v>0.2056637750651803</v>
+        <v>0.2653549736555556</v>
       </c>
       <c r="R7">
-        <v>0.2056637750651803</v>
+        <v>2.3881947629</v>
       </c>
       <c r="S7">
-        <v>0.0005103192366964151</v>
+        <v>0.0005381454787319864</v>
       </c>
       <c r="T7">
-        <v>0.0005103192366964151</v>
+        <v>0.0005381454787319863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H8">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I8">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J8">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N8">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q8">
-        <v>0.3659175361772996</v>
+        <v>0.5492584488160002</v>
       </c>
       <c r="R8">
-        <v>0.3659175361772996</v>
+        <v>4.943326039344001</v>
       </c>
       <c r="S8">
-        <v>0.0009079613446590252</v>
+        <v>0.001113907709411748</v>
       </c>
       <c r="T8">
-        <v>0.0009079613446590252</v>
+        <v>0.001113907709411748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H9">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I9">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J9">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N9">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q9">
-        <v>0.03575229320322224</v>
+        <v>0.05170125587966667</v>
       </c>
       <c r="R9">
-        <v>0.03575229320322224</v>
+        <v>0.4653113029170001</v>
       </c>
       <c r="S9">
-        <v>8.87131580261641E-05</v>
+        <v>0.0001048512364894414</v>
       </c>
       <c r="T9">
-        <v>8.87131580261641E-05</v>
+        <v>0.0001048512364894414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H10">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I10">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J10">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N10">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O10">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P10">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q10">
-        <v>0.05730802391772803</v>
+        <v>0.07240432795522224</v>
       </c>
       <c r="R10">
-        <v>0.05730802391772803</v>
+        <v>0.6516389515970001</v>
       </c>
       <c r="S10">
-        <v>0.0001421999912867798</v>
+        <v>0.0001468375029604991</v>
       </c>
       <c r="T10">
-        <v>0.0001421999912867798</v>
+        <v>0.0001468375029604991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H11">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I11">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J11">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N11">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q11">
-        <v>0.07713081881291255</v>
+        <v>0.1178251506776667</v>
       </c>
       <c r="R11">
-        <v>0.07713081881291255</v>
+        <v>1.060426356099</v>
       </c>
       <c r="S11">
-        <v>0.000191386842772386</v>
+        <v>0.0002389518886516407</v>
       </c>
       <c r="T11">
-        <v>0.000191386842772386</v>
+        <v>0.0002389518886516407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.38600218209824</v>
+        <v>3.623825</v>
       </c>
       <c r="H12">
-        <v>3.38600218209824</v>
+        <v>10.871475</v>
       </c>
       <c r="I12">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J12">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N12">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q12">
-        <v>4.839601868085368</v>
+        <v>5.584193530833333</v>
       </c>
       <c r="R12">
-        <v>4.839601868085368</v>
+        <v>50.25774177749999</v>
       </c>
       <c r="S12">
-        <v>0.0120086385191225</v>
+        <v>0.01132486216325137</v>
       </c>
       <c r="T12">
-        <v>0.0120086385191225</v>
+        <v>0.01132486216325137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.38600218209824</v>
+        <v>3.623825</v>
       </c>
       <c r="H13">
-        <v>3.38600218209824</v>
+        <v>10.871475</v>
       </c>
       <c r="I13">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J13">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N13">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q13">
-        <v>8.610632529173456</v>
+        <v>11.5587261636</v>
       </c>
       <c r="R13">
-        <v>8.610632529173456</v>
+        <v>104.0285354724</v>
       </c>
       <c r="S13">
-        <v>0.02136580162631213</v>
+        <v>0.02344134025132951</v>
       </c>
       <c r="T13">
-        <v>0.02136580162631213</v>
+        <v>0.02344134025132951</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.38600218209824</v>
+        <v>3.623825</v>
       </c>
       <c r="H14">
-        <v>3.38600218209824</v>
+        <v>10.871475</v>
       </c>
       <c r="I14">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J14">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N14">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q14">
-        <v>0.8413093891708123</v>
+        <v>1.088013594175</v>
       </c>
       <c r="R14">
-        <v>0.8413093891708123</v>
+        <v>9.792122347575001</v>
       </c>
       <c r="S14">
-        <v>0.002087564351919088</v>
+        <v>0.002206514498063398</v>
       </c>
       <c r="T14">
-        <v>0.002087564351919088</v>
+        <v>0.002206514498063398</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.38600218209824</v>
+        <v>3.623825</v>
       </c>
       <c r="H15">
-        <v>3.38600218209824</v>
+        <v>10.871475</v>
       </c>
       <c r="I15">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J15">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N15">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O15">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P15">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q15">
-        <v>1.348550660030521</v>
+        <v>1.523693994508333</v>
       </c>
       <c r="R15">
-        <v>1.348550660030521</v>
+        <v>13.713245950575</v>
       </c>
       <c r="S15">
-        <v>0.003346196204242173</v>
+        <v>0.003090083531579482</v>
       </c>
       <c r="T15">
-        <v>0.003346196204242173</v>
+        <v>0.003090083531579482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.38600218209824</v>
+        <v>3.623825</v>
       </c>
       <c r="H16">
-        <v>3.38600218209824</v>
+        <v>10.871475</v>
       </c>
       <c r="I16">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J16">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N16">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O16">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P16">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q16">
-        <v>1.815013143153783</v>
+        <v>2.479540651225</v>
       </c>
       <c r="R16">
-        <v>1.815013143153783</v>
+        <v>22.315865861025</v>
       </c>
       <c r="S16">
-        <v>0.004503642518059639</v>
+        <v>0.005028560695157567</v>
       </c>
       <c r="T16">
-        <v>0.004503642518059639</v>
+        <v>0.005028560695157568</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.67631076639199</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H17">
-        <v>2.67631076639199</v>
+        <v>8.613754</v>
       </c>
       <c r="I17">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J17">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N17">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O17">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P17">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q17">
-        <v>3.82524224381373</v>
+        <v>4.424502596288889</v>
       </c>
       <c r="R17">
-        <v>3.82524224381373</v>
+        <v>39.8205233666</v>
       </c>
       <c r="S17">
-        <v>0.00949167981295313</v>
+        <v>0.008972984508372151</v>
       </c>
       <c r="T17">
-        <v>0.00949167981295313</v>
+        <v>0.00897298450837215</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.67631076639199</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H18">
-        <v>2.67631076639199</v>
+        <v>8.613754</v>
       </c>
       <c r="I18">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J18">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N18">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P18">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q18">
-        <v>6.805881184929313</v>
+        <v>9.158281072864</v>
       </c>
       <c r="R18">
-        <v>6.805881184929313</v>
+        <v>82.424529655776</v>
       </c>
       <c r="S18">
-        <v>0.01688762199487431</v>
+        <v>0.01857318701972369</v>
       </c>
       <c r="T18">
-        <v>0.01688762199487431</v>
+        <v>0.01857318701972369</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.67631076639199</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H19">
-        <v>2.67631076639199</v>
+        <v>8.613754</v>
       </c>
       <c r="I19">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J19">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N19">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O19">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P19">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q19">
-        <v>0.6649745791685335</v>
+        <v>0.8620616290686666</v>
       </c>
       <c r="R19">
-        <v>0.6649745791685335</v>
+        <v>7.758554661618</v>
       </c>
       <c r="S19">
-        <v>0.001650019890747688</v>
+        <v>0.001748279151058305</v>
       </c>
       <c r="T19">
-        <v>0.001650019890747688</v>
+        <v>0.001748279151058305</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.67631076639199</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H20">
-        <v>2.67631076639199</v>
+        <v>8.613754</v>
       </c>
       <c r="I20">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J20">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N20">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O20">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P20">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q20">
-        <v>1.065900273055404</v>
+        <v>1.207262606037556</v>
       </c>
       <c r="R20">
-        <v>1.065900273055404</v>
+        <v>10.865363454338</v>
       </c>
       <c r="S20">
-        <v>0.002644847949366592</v>
+        <v>0.002448354007204808</v>
       </c>
       <c r="T20">
-        <v>0.002644847949366592</v>
+        <v>0.002448354007204808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.67631076639199</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H21">
-        <v>2.67631076639199</v>
+        <v>8.613754</v>
       </c>
       <c r="I21">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J21">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N21">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O21">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P21">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q21">
-        <v>1.434594236780826</v>
+        <v>1.964604913560667</v>
       </c>
       <c r="R21">
-        <v>1.434594236780826</v>
+        <v>17.681444222046</v>
       </c>
       <c r="S21">
-        <v>0.003559698520806813</v>
+        <v>0.003984260167286985</v>
       </c>
       <c r="T21">
-        <v>0.003559698520806813</v>
+        <v>0.003984260167286985</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.180844692183412</v>
+        <v>0.2488803333333334</v>
       </c>
       <c r="H22">
-        <v>0.180844692183412</v>
+        <v>0.7466410000000001</v>
       </c>
       <c r="I22">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="J22">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N22">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O22">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P22">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q22">
-        <v>0.2584807283206798</v>
+        <v>0.3835162976555556</v>
       </c>
       <c r="R22">
-        <v>0.2584807283206798</v>
+        <v>3.4516466789</v>
       </c>
       <c r="S22">
-        <v>0.0006413754096244598</v>
+        <v>0.0007777791339659214</v>
       </c>
       <c r="T22">
-        <v>0.0006413754096244598</v>
+        <v>0.0007777791339659214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.180844692183412</v>
+        <v>0.2488803333333334</v>
       </c>
       <c r="H23">
-        <v>0.180844692183412</v>
+        <v>0.7466410000000001</v>
       </c>
       <c r="I23">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="J23">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N23">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O23">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P23">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q23">
-        <v>0.4598896000350152</v>
+        <v>0.7938406574560001</v>
       </c>
       <c r="R23">
-        <v>0.4598896000350152</v>
+        <v>7.144565917104001</v>
       </c>
       <c r="S23">
-        <v>0.001141136836470637</v>
+        <v>0.001609925582921629</v>
       </c>
       <c r="T23">
-        <v>0.001141136836470637</v>
+        <v>0.001609925582921629</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.180844692183412</v>
+        <v>0.2488803333333334</v>
       </c>
       <c r="H24">
-        <v>0.180844692183412</v>
+        <v>0.7466410000000001</v>
       </c>
       <c r="I24">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="J24">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N24">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O24">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P24">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q24">
-        <v>0.04493391596733343</v>
+        <v>0.07472358239966667</v>
       </c>
       <c r="R24">
-        <v>0.04493391596733343</v>
+        <v>0.6725122415970001</v>
       </c>
       <c r="S24">
-        <v>0.0001114957735797815</v>
+        <v>0.0001515409998503932</v>
       </c>
       <c r="T24">
-        <v>0.0001114957735797815</v>
+        <v>0.0001515409998503932</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.180844692183412</v>
+        <v>0.2488803333333334</v>
       </c>
       <c r="H25">
-        <v>0.180844692183412</v>
+        <v>0.7466410000000001</v>
       </c>
       <c r="I25">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="J25">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N25">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O25">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P25">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q25">
-        <v>0.07202541991742901</v>
+        <v>0.1046456352752222</v>
       </c>
       <c r="R25">
-        <v>0.07202541991742901</v>
+        <v>0.9418107174770002</v>
       </c>
       <c r="S25">
-        <v>0.0001787186747075522</v>
+        <v>0.000212223553667008</v>
       </c>
       <c r="T25">
-        <v>0.0001787186747075522</v>
+        <v>0.0002122235536670081</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.180844692183412</v>
+        <v>0.2488803333333334</v>
       </c>
       <c r="H26">
-        <v>0.180844692183412</v>
+        <v>0.7466410000000001</v>
       </c>
       <c r="I26">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="J26">
-        <v>0.002313264000940785</v>
+        <v>0.003096825313259592</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N26">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O26">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P26">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q26">
-        <v>0.0969389490998768</v>
+        <v>0.1702921371176667</v>
       </c>
       <c r="R26">
-        <v>0.0969389490998768</v>
+        <v>1.532629234059</v>
       </c>
       <c r="S26">
-        <v>0.0002405373065583546</v>
+        <v>0.0003453560428546395</v>
       </c>
       <c r="T26">
-        <v>0.0002405373065583546</v>
+        <v>0.0003453560428546395</v>
       </c>
     </row>
   </sheetData>
